--- a/medicine/Enfance/Sophie_Koechlin/Sophie_Koechlin.xlsx
+++ b/medicine/Enfance/Sophie_Koechlin/Sophie_Koechlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sophie Koechlin, prononcé ke'klɛ̃, née le 19 avril 1960 à Paris est une autrice, traductrice, adaptatrice et illustratrice française de littérature d'enfance et de jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sophie Koechlin est la fille du journaliste Philippe Koechlin, fondateur de la revue Rock &amp; Folk. Elle a suivi des formations et études de dessin et d’histoire de l’art dans différents ateliers, notamment à Penninghen. Elle a été animatrice à la radio, avant de se lancer dans l'illustration pour enfants. Elle a également des activités de traductrice et a beaucoup adapté pour l'édition des ouvrages anglophones. Elle est aussi active en tant que styliste, notamment pour Hermès et Cartier[1],[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Koechlin est la fille du journaliste Philippe Koechlin, fondateur de la revue Rock &amp; Folk. Elle a suivi des formations et études de dessin et d’histoire de l’art dans différents ateliers, notamment à Penninghen. Elle a été animatrice à la radio, avant de se lancer dans l'illustration pour enfants. Elle a également des activités de traductrice et a beaucoup adapté pour l'édition des ouvrages anglophones. Elle est aussi active en tant que styliste, notamment pour Hermès et Cartier,
 </t>
         </is>
       </c>
@@ -542,10 +556,48 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sophie Koechlin a illustré et écrit de nombreux livres[3]
-Adaptatrice
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sophie Koechlin a illustré et écrit de nombreux livres
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Adaptatrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Le Roi lion, (Les grands classiques), Hachette jeunesse, 2018
 Clochette et la créature légendaire, (Les grands classiques), Hachette jeunesse, 2018
 Clochette et le secret des fées, (Les grands classiques), Hachette jeunesse, 2018
@@ -597,12 +649,82 @@
 Winnie l'ourson et l'éléfant, 2006
 Frère des ours (2004)
 Le monde de Nemo (2004)
-Les Aventures de Porcinet (2003) [4]
-Autrice du texte et des illustrations
-Du Blues dans le couleur, KANJIL, 2019
+Les Aventures de Porcinet (2003) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autrice du texte et des illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Du Blues dans le couleur, KANJIL, 2019
 Adieu, mon Rhino !, KANJIL, 2016
-Un jour je serai libre, (livre-CD) KANJIL, 2012
-Autrice du texte
+Un jour je serai libre, (livre-CD) KANJIL, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autrice du texte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Pop Années 60 : L’Album, 2019
 Dumbo (2018)
 Le Dragon et le phénix (2017)
@@ -642,8 +764,43 @@
 Les Aventures de Porcinet (2003)
 Le Bateau de Noé (1983, réédité en 1983, 1987, 1990, 1992)
 Bleu de bleu, chansons (cassettine), Vif Argent, 1982)
-Illustratrice
-Dis-moi des chansons, Texte de Bruno de La Salle, (livre-CD), KANJIL, 2014
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sophie_Koechlin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Illustratrice</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dis-moi des chansons, Texte de Bruno de La Salle, (livre-CD), KANJIL, 2014
 Les Aventures des tendrelins et tendrelinesines (1991)
 Chansons de France (1990)
 Mille et Une Histoires, Au creux de l'oreille, Martinsart, 1989
